--- a/biology/Virologie/Odile_Launay/Odile_Launay.xlsx
+++ b/biology/Virologie/Odile_Launay/Odile_Launay.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Odile Launay est une professeure des Universités en maladies infectieuses et tropicales à l'Université Paris-Cité et praticienne hospitalier à l’Hôpital Cochin à Paris. Elle dirige le Centre d'investigation clinique Cochin-Pasteur et le réseau français de recherche clinique en vaccinologie (I-REIVAC). Pendant la pandémie, elle travaille sur la recherche clinique vaccinale sur la COVID-19.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2005, elle soutient sa thèse sur les antirétroviraux sous la direction de Jean-Marc Tréluyer à l'Université Paris-Descartes[1]. De 2007 à 2016, elle est membre du Comité Technique des Vaccinations au sein du Haut Conseil de la santé publique. Elle en est la vice-présidente de 2011 à 2016. Ses travaux de recherche portent notamment sur la vaccination des populations particulières, telles que les femmes enceintes. Ils visent à apporter des informations sur la balance bénéfice-risque de la vaccination dans ces populations[2]. 
-Lors de la pandémie de Covid-19, elle est membre du comité scientifique sur les vaccins covid-19 et coordonne COVIREIVAC, un consortium de recherche clinique vaccinale Covid19 de l’Inserm et F-CRIN. Elle participe à plusieurs études importantes notamment une étude appelée CoviCompare qui examine la réponse immunitaire des sujets les plus âgés et une autre qui examine la réponse des populations immuno-déprimées (ANRS COV-POPART)[3]. Odile Launay est également impliquée dans l’enseignement de la vaccinologie pour la formation initiale des étudiants en santé à l'Université Paris-Cité[3].
-En 2021, elle reçoit le Prix Irène-Joliot-Curie dans la catégorie prix spécial de l'engagement[4] 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2005, elle soutient sa thèse sur les antirétroviraux sous la direction de Jean-Marc Tréluyer à l'Université Paris-Descartes. De 2007 à 2016, elle est membre du Comité Technique des Vaccinations au sein du Haut Conseil de la santé publique. Elle en est la vice-présidente de 2011 à 2016. Ses travaux de recherche portent notamment sur la vaccination des populations particulières, telles que les femmes enceintes. Ils visent à apporter des informations sur la balance bénéfice-risque de la vaccination dans ces populations. 
+Lors de la pandémie de Covid-19, elle est membre du comité scientifique sur les vaccins covid-19 et coordonne COVIREIVAC, un consortium de recherche clinique vaccinale Covid19 de l’Inserm et F-CRIN. Elle participe à plusieurs études importantes notamment une étude appelée CoviCompare qui examine la réponse immunitaire des sujets les plus âgés et une autre qui examine la réponse des populations immuno-déprimées (ANRS COV-POPART). Odile Launay est également impliquée dans l’enseignement de la vaccinologie pour la formation initiale des étudiants en santé à l'Université Paris-Cité.
+En 2021, elle reçoit le Prix Irène-Joliot-Curie dans la catégorie prix spécial de l'engagement 
 « pour son engagement dans la recherche clinique vaccinale sur la COVID-19 et son engagement auprès du grand public. »
 </t>
         </is>
@@ -545,9 +559,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2021 : Prix Irène-Joliot-Curie[5]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2021 : Prix Irène-Joliot-Curie</t>
         </is>
       </c>
     </row>
@@ -575,10 +591,12 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Officier de la Légion d'honneur (décret du 13 juillet 2021)[6]
- Chevalier de la Légion d'honneur (décret du 30 septembre 2010)[7]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Officier de la Légion d'honneur (décret du 13 juillet 2021)
+ Chevalier de la Légion d'honneur (décret du 30 septembre 2010)</t>
         </is>
       </c>
     </row>
@@ -607,6 +625,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
